--- a/results/comparaison/GM/diattenuation/median_raw_data.xlsx
+++ b/results/comparaison/GM/diattenuation/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0610553288737213</v>
+        <v>0.0645185880013181</v>
       </c>
       <c r="C2">
-        <v>0.0385507308191426</v>
+        <v>0.0275707250720563</v>
       </c>
       <c r="D2">
-        <v>0.0634508544543778</v>
+        <v>0.0429648964892005</v>
       </c>
       <c r="E2">
-        <v>0.0691019208286648</v>
+        <v>0.0293921445753799</v>
       </c>
       <c r="F2">
-        <v>0.0412074069304128</v>
+        <v>0.0336242628452679</v>
+      </c>
+      <c r="G2">
+        <v>0.0303474136702984</v>
+      </c>
+      <c r="H2">
+        <v>0.0282792125560739</v>
+      </c>
+      <c r="I2">
+        <v>0.0347455354335694</v>
+      </c>
+      <c r="J2">
+        <v>0.0330076379397491</v>
+      </c>
+      <c r="K2">
+        <v>0.0233228811516501</v>
+      </c>
+      <c r="L2">
+        <v>0.0359082808793233</v>
+      </c>
+      <c r="M2">
+        <v>0.0365516017982268</v>
+      </c>
+      <c r="N2">
+        <v>0.0391623092229458</v>
+      </c>
+      <c r="O2">
+        <v>0.0370509814926118</v>
+      </c>
+      <c r="P2">
+        <v>0.0401206454808264</v>
+      </c>
+      <c r="Q2">
+        <v>0.0347033524724167</v>
+      </c>
+      <c r="R2">
+        <v>0.0411688172971094</v>
+      </c>
+      <c r="S2">
+        <v>0.0307845707299309</v>
+      </c>
+      <c r="T2">
+        <v>0.0470264390311352</v>
+      </c>
+      <c r="U2">
+        <v>0.0292711540221055</v>
+      </c>
+      <c r="V2">
+        <v>0.0774479392608068</v>
+      </c>
+      <c r="W2">
+        <v>0.0385340293035973</v>
+      </c>
+      <c r="X2">
+        <v>0.0275713288275639</v>
+      </c>
+      <c r="Y2">
+        <v>0.0376450488376152</v>
+      </c>
+      <c r="Z2">
+        <v>0.0348997274077501</v>
+      </c>
+      <c r="AA2">
+        <v>0.0329324913144854</v>
+      </c>
+      <c r="AB2">
+        <v>0.0273132530511688</v>
+      </c>
+      <c r="AC2">
+        <v>0.0311064257689777</v>
+      </c>
+      <c r="AD2">
+        <v>0.0348440963114933</v>
+      </c>
+      <c r="AE2">
+        <v>0.0604223320253046</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.0331845961882433</v>
-      </c>
       <c r="C3">
-        <v>0.0230056196894762</v>
+        <v>0.0380691138579011</v>
       </c>
       <c r="D3">
-        <v>0.0290505427335761</v>
+        <v>0.0462511172023767</v>
       </c>
       <c r="E3">
-        <v>0.0293418594728541</v>
+        <v>0.0381497952059072</v>
       </c>
       <c r="F3">
-        <v>0.0424806142917779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.0285986456696111</v>
-      </c>
-      <c r="C4">
-        <v>0.0290350468964635</v>
-      </c>
-      <c r="D4">
-        <v>0.0243934813888078</v>
-      </c>
-      <c r="E4">
-        <v>0.0298125618450312</v>
-      </c>
-      <c r="F4">
-        <v>0.0380520345097963</v>
+        <v>0.0550167505058075</v>
+      </c>
+      <c r="G3">
+        <v>0.0228304449324026</v>
+      </c>
+      <c r="H3">
+        <v>0.0392533420290288</v>
+      </c>
+      <c r="I3">
+        <v>0.0408520342277381</v>
+      </c>
+      <c r="J3">
+        <v>0.0303087905572503</v>
+      </c>
+      <c r="K3">
+        <v>0.0253244895094017</v>
+      </c>
+      <c r="L3">
+        <v>0.0255752228600607</v>
+      </c>
+      <c r="M3">
+        <v>0.0534677890467729</v>
+      </c>
+      <c r="N3">
+        <v>0.0318074345280068</v>
+      </c>
+      <c r="O3">
+        <v>0.0406312384920352</v>
+      </c>
+      <c r="P3">
+        <v>0.0370093346162611</v>
+      </c>
+      <c r="Q3">
+        <v>0.0262152332655818</v>
+      </c>
+      <c r="R3">
+        <v>0.0397566797710784</v>
+      </c>
+      <c r="S3">
+        <v>0.0286150638716241</v>
+      </c>
+      <c r="T3">
+        <v>0.0438957072733389</v>
+      </c>
+      <c r="U3">
+        <v>0.0288298882177162</v>
+      </c>
+      <c r="V3">
+        <v>0.0549900085435109</v>
+      </c>
+      <c r="W3">
+        <v>0.0469757347829624</v>
+      </c>
+      <c r="X3">
+        <v>0.0376865865604173</v>
+      </c>
+      <c r="Y3">
+        <v>0.0429483895692788</v>
+      </c>
+      <c r="Z3">
+        <v>0.0350776562078856</v>
+      </c>
+      <c r="AA3">
+        <v>0.0475166403627367</v>
+      </c>
+      <c r="AB3">
+        <v>0.0388452781221838</v>
+      </c>
+      <c r="AC3">
+        <v>0.0423361020510931</v>
+      </c>
+      <c r="AD3">
+        <v>0.0377382512463597</v>
+      </c>
+      <c r="AE3">
+        <v>0.0539288333902568</v>
       </c>
     </row>
   </sheetData>
